--- a/data/trans_camb/P25_N_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25_N_R2-Urba-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -601,32 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>1,39</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,82</t>
+          <t>-1,52</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,0</t>
+          <t>-2,31</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-2,19</t>
+          <t>-5,48</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-0,73</t>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>-0,75</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>-4,14</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>4,26</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 7,67</t>
+          <t>-9,98; 12,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,75; 6,82</t>
+          <t>-13,03; 9,37</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,41; 3,88</t>
+          <t>-6,81; 18,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,37; 10,08</t>
+          <t>-12,23; 7,22</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,87; 3,97</t>
+          <t>-15,4; 4,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 6,87</t>
+          <t>-6,59; 12,97</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-8,87; 6,91</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>-12,92; 3,5</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-6,01; 12,23</t>
         </is>
       </c>
     </row>
@@ -677,32 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,32%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-2,81%</t>
+          <t>-4,94%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-7,84%</t>
+          <t>20,87%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,0%</t>
+          <t>-4,3%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-5,32%</t>
+          <t>-10,21%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,76%</t>
+          <t>5,91%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-1,74%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-9,6%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-23,38; 30,88</t>
+          <t>-26,87; 51,72</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-27,1; 27,38</t>
+          <t>-35,32; 35,83</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-22,17; 8,28</t>
+          <t>-18,56; 74,39</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-15,31; 22,09</t>
+          <t>-21,38; 15,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-18,18; 10,23</t>
+          <t>-26,97; 8,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,51; 18,19</t>
+          <t>-11,35; 26,63</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-18,42; 18,37</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-27,93; 8,76</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-12,54; 32,11</t>
         </is>
       </c>
     </row>
@@ -757,12 +848,12 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-8,07</t>
+          <t>-9,82</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-7,94</t>
+          <t>-8,99</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
@@ -772,17 +863,32 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,01</t>
+          <t>-3,19</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,29</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>11,17</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>-6,34</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-3,37</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>4,64</t>
         </is>
       </c>
     </row>
@@ -795,32 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-19,65; 1,83</t>
+          <t>-21,39; 1,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-19,16; 2,28</t>
+          <t>-20,97; 3,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,28; 7,75</t>
+          <t>-14,86; 10,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 11,17</t>
+          <t>-14,64; 6,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-12,52; 1,57</t>
+          <t>-9,59; 12,35</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-10,88; 3,36</t>
+          <t>-0,38; 24,62</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>-14,91; 2,1</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>-11,9; 5,11</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-4,26; 13,93</t>
         </is>
       </c>
     </row>
@@ -833,32 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-21,55%</t>
+          <t>-24,72%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-21,2%</t>
+          <t>-22,63%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-5,4%</t>
+          <t>-6,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>-8,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-12,89%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-7,5%</t>
+          <t>30,12%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-16,55%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>-8,81%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12,11%</t>
         </is>
       </c>
     </row>
@@ -871,32 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-44,39; 5,62</t>
+          <t>-46,68; 4,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,21; 8,26</t>
+          <t>-45,5; 9,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-23,41; 19,01</t>
+          <t>-33,04; 29,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 28,09</t>
+          <t>-32,8; 22,76</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,9; 4,36</t>
+          <t>-22,53; 37,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-23,72; 9,0</t>
+          <t>-1,34; 73,43</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-33,83; 6,9</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-27,72; 14,83</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-10,45; 40,65</t>
         </is>
       </c>
     </row>
@@ -913,32 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-4,12</t>
+          <t>-5,34</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>2,35</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>8,82</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>4,29</t>
+          <t>-2,6</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>-2,97</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,45</t>
+          <t>4,6</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-3,79</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>6,45</t>
         </is>
       </c>
     </row>
@@ -951,32 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 17,75</t>
+          <t>-36,39; 25,5</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-18,32; 21,3</t>
+          <t>-32,01; 34,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-18,22; 16,54</t>
+          <t>-28,89; 41,03</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-13,8; 20,81</t>
+          <t>-26,73; 19,88</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 10,43</t>
+          <t>-26,13; 19,37</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-13,14; 16,1</t>
+          <t>-17,61; 30,58</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-23,73; 17,35</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-21,21; 21,84</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-15,27; 30,52</t>
         </is>
       </c>
     </row>
@@ -989,32 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-13,19%</t>
+          <t>-15,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,18%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,13%</t>
+          <t>25,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>-4,62%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,26%</t>
+          <t>-5,28%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>8,19%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-8,32%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-0,93%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14,14%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-53,1; 80,18</t>
+          <t>-69,32; 117,76</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-42,89; 101,96</t>
+          <t>-60,99; 165,21</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 39,08</t>
+          <t>-54,61; 205,83</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 46,56</t>
+          <t>-40,23; 44,91</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-34,13; 29,31</t>
+          <t>-40,13; 43,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-25,91; 44,44</t>
+          <t>-27,63; 72,34</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>-43,59; 51,4</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>-39,61; 66,34</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-30,86; 89,29</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-3,77</t>
+          <t>-3,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,41</t>
+          <t>-4,13</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-3,03</t>
+          <t>3,13</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,29</t>
+          <t>-2,55</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-3,48</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>6,78</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>-3,36</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>-3,45</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>4,72</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,25; 2,46</t>
+          <t>-11,64; 4,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-10,32; 2,81</t>
+          <t>-12,69; 3,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 2,72</t>
+          <t>-5,68; 11,62</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,94; 7,76</t>
+          <t>-9,03; 4,83</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,53; 0,73</t>
+          <t>-8,87; 5,56</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-5,46; 4,05</t>
+          <t>0,41; 14,35</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>-8,67; 2,0</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>-8,5; 2,4</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>-1,2; 11,07</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-11,52%</t>
+          <t>-11,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-10,4%</t>
+          <t>-11,85%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>-5,42%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,46%</t>
+          <t>-4,59%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-3,16%</t>
+          <t>14,39%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>-8,11%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>-8,32%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>11,39%</t>
         </is>
       </c>
     </row>
@@ -1183,43 +1439,65 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,37; 8,74</t>
+          <t>-29,76; 13,67</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-27,93; 9,6</t>
+          <t>-32,19; 9,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 6,05</t>
+          <t>-15,66; 36,41</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 16,51</t>
+          <t>-18,23; 10,99</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-17,26; 1,86</t>
+          <t>-17,55; 12,58</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 10,56</t>
+          <t>0,74; 32,87</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>-19,87; 5,31</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>-19,3; 6,3</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 28,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
